--- a/eagle/inductor_test/assembly/TestingResults.xlsx
+++ b/eagle/inductor_test/assembly/TestingResults.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="209">
   <si>
     <t>MAX4238</t>
   </si>
@@ -385,6 +385,264 @@
   </si>
   <si>
     <t>0302</t>
+  </si>
+  <si>
+    <t>MCP6V3 with 10bit</t>
+  </si>
+  <si>
+    <t>12EB</t>
+  </si>
+  <si>
+    <t>13B7</t>
+  </si>
+  <si>
+    <t>141F</t>
+  </si>
+  <si>
+    <t>13E0</t>
+  </si>
+  <si>
+    <t>11EF</t>
+  </si>
+  <si>
+    <t>1335</t>
+  </si>
+  <si>
+    <t>13FD</t>
+  </si>
+  <si>
+    <t>13E8</t>
+  </si>
+  <si>
+    <t>1343</t>
+  </si>
+  <si>
+    <t>13AB</t>
+  </si>
+  <si>
+    <t>1380</t>
+  </si>
+  <si>
+    <t>12F0</t>
+  </si>
+  <si>
+    <t>134A</t>
+  </si>
+  <si>
+    <t>1152</t>
+  </si>
+  <si>
+    <t>101B</t>
+  </si>
+  <si>
+    <t>04FC</t>
+  </si>
+  <si>
+    <t>061A</t>
+  </si>
+  <si>
+    <t>03B1</t>
+  </si>
+  <si>
+    <t>Fgen</t>
+  </si>
+  <si>
+    <t>Vppk</t>
+  </si>
+  <si>
+    <t>Wattage</t>
+  </si>
+  <si>
+    <t>0376</t>
+  </si>
+  <si>
+    <t>03AC</t>
+  </si>
+  <si>
+    <t>0362</t>
+  </si>
+  <si>
+    <t>0314</t>
+  </si>
+  <si>
+    <t>031B</t>
+  </si>
+  <si>
+    <t>0315</t>
+  </si>
+  <si>
+    <t>0289</t>
+  </si>
+  <si>
+    <t>0297</t>
+  </si>
+  <si>
+    <t>0295</t>
+  </si>
+  <si>
+    <t>0220</t>
+  </si>
+  <si>
+    <t>0195</t>
+  </si>
+  <si>
+    <t>0189</t>
+  </si>
+  <si>
+    <t>0198</t>
+  </si>
+  <si>
+    <t>0118</t>
+  </si>
+  <si>
+    <t>00FF</t>
+  </si>
+  <si>
+    <t>00F6</t>
+  </si>
+  <si>
+    <t>00F5</t>
+  </si>
+  <si>
+    <t>00E5</t>
+  </si>
+  <si>
+    <t>00CF</t>
+  </si>
+  <si>
+    <t>00E7</t>
+  </si>
+  <si>
+    <t>00CA</t>
+  </si>
+  <si>
+    <t>00C4</t>
+  </si>
+  <si>
+    <t>00CC</t>
+  </si>
+  <si>
+    <t>00B3</t>
+  </si>
+  <si>
+    <t>00C7</t>
+  </si>
+  <si>
+    <t>00B1</t>
+  </si>
+  <si>
+    <t>00AD</t>
+  </si>
+  <si>
+    <t>00B7</t>
+  </si>
+  <si>
+    <t>00A0</t>
+  </si>
+  <si>
+    <t>0096</t>
+  </si>
+  <si>
+    <t>00A8</t>
+  </si>
+  <si>
+    <t>00A1</t>
+  </si>
+  <si>
+    <t>009A</t>
+  </si>
+  <si>
+    <t>009C</t>
+  </si>
+  <si>
+    <t>008C</t>
+  </si>
+  <si>
+    <t>008D</t>
+  </si>
+  <si>
+    <t>0085</t>
+  </si>
+  <si>
+    <t>0093</t>
+  </si>
+  <si>
+    <t>0083</t>
+  </si>
+  <si>
+    <t>0076</t>
+  </si>
+  <si>
+    <t>007E</t>
+  </si>
+  <si>
+    <t>0074</t>
+  </si>
+  <si>
+    <t>006E</t>
+  </si>
+  <si>
+    <t>0071</t>
+  </si>
+  <si>
+    <t>006F</t>
+  </si>
+  <si>
+    <t>0062</t>
+  </si>
+  <si>
+    <t>0068</t>
+  </si>
+  <si>
+    <t>0060</t>
+  </si>
+  <si>
+    <t>005A</t>
+  </si>
+  <si>
+    <t>0053</t>
+  </si>
+  <si>
+    <t>005D</t>
+  </si>
+  <si>
+    <t>004F</t>
+  </si>
+  <si>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>0052</t>
+  </si>
+  <si>
+    <t>0047</t>
+  </si>
+  <si>
+    <t>0049</t>
+  </si>
+  <si>
+    <t>0054</t>
+  </si>
+  <si>
+    <t>0048</t>
+  </si>
+  <si>
+    <t>0045</t>
+  </si>
+  <si>
+    <t>004A</t>
+  </si>
+  <si>
+    <t>004D</t>
+  </si>
+  <si>
+    <t>004E</t>
+  </si>
+  <si>
+    <t>004C</t>
+  </si>
+  <si>
+    <t>0044</t>
   </si>
 </sst>
 </file>
@@ -651,11 +909,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="54459392"/>
-        <c:axId val="54457856"/>
+        <c:axId val="121828480"/>
+        <c:axId val="121830016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="54459392"/>
+        <c:axId val="121828480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -665,12 +923,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54457856"/>
+        <c:crossAx val="121830016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="54457856"/>
+        <c:axId val="121830016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,7 +939,249 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54459392"/>
+        <c:crossAx val="121828480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.38425984251968504"/>
+                  <c:y val="-4.7462817147856518E-4"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$85:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>20.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.722222222222221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.611111111111107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.3888888888889</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.277777777777786</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.222222222222214</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>111.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>138.88888888888889</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>208.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>277.77777777777777</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>347.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>416.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>458.33333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$85:$F$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.77706666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83346666666666669</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.90866666666666662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0089333333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1029333333333333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1969333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3191333333333335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5008666666666668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6168000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8862666666666668</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0899333333333332</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3374666666666668</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6163333333333334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.7788000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3517333333333328</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.1820666666666675</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.432266666666667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.4349333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="91339008"/>
+        <c:axId val="83278464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="91339008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83278464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83278464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91339008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -807,11 +1307,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="51296896"/>
-        <c:axId val="51295360"/>
+        <c:axId val="122173696"/>
+        <c:axId val="122175488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51296896"/>
+        <c:axId val="122173696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,12 +1321,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51295360"/>
+        <c:crossAx val="122175488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51295360"/>
+        <c:axId val="122175488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -837,7 +1337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51296896"/>
+        <c:crossAx val="122173696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1062,11 +1562,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="56788864"/>
-        <c:axId val="56787328"/>
+        <c:axId val="122204160"/>
+        <c:axId val="122205696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56788864"/>
+        <c:axId val="122204160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,12 +1576,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56787328"/>
+        <c:crossAx val="122205696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56787328"/>
+        <c:axId val="122205696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,7 +1592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56788864"/>
+        <c:crossAx val="122204160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1279,11 +1779,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="55010432"/>
-        <c:axId val="55000448"/>
+        <c:axId val="122503936"/>
+        <c:axId val="122505472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55010432"/>
+        <c:axId val="122503936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,12 +1793,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55000448"/>
+        <c:crossAx val="122505472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55000448"/>
+        <c:axId val="122505472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1809,851 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55010432"/>
+        <c:crossAx val="122503936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.37853521434820647"/>
+                  <c:y val="1.8043890347039952E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$W$32:$W$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>450</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$X$32:$X$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="40440960"/>
+        <c:axId val="40439168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="40440960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40439168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="40439168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="40440960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$63:$A$73</c:f>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$63:$F$73</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="42293888"/>
+        <c:axId val="42292352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="42293888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42292352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="42292352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42293888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$80:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>4.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5555555555555562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.416666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.722222222222221</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.611111111111107</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69.444444444444443</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76.3888888888889</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90.277777777777786</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>97.222222222222214</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>111.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>138.88888888888889</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>208.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>277.77777777777777</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>347.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>416.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>458.33333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$80:$F$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.69873333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72380000000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69873333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69873333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77706666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83346666666666669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90866666666666662</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0089333333333335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1029333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1969333333333334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3191333333333335</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5008666666666668</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6168000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8862666666666668</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0899333333333332</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3374666666666668</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.6163333333333334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.7788000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.3517333333333328</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.1820666666666675</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.432266666666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.4349333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="41854464"/>
+        <c:axId val="41852928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="41854464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41852928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="41852928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41854464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$80:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5555555555555562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9444444444444446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.416666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.833333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.722222222222221</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.611111111111107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$80:$F$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.69873333333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72380000000000011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69873333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69873333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77706666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83346666666666669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90866666666666662</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0089333333333335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1029333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="60813312"/>
+        <c:axId val="60803328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="60813312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60803328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="60803328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60813312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$39:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$39:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.6225999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6696000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6476666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6069333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5129333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5881333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4628000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5881333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="93981696"/>
+        <c:axId val="83257984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="93981696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="83257984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83257984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93981696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1430,16 +2774,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1453,6 +2797,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2208,10 +3732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:X104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2445,7 +3969,7 @@
         <v>2.8795333333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>100</v>
       </c>
@@ -2463,12 +3987,12 @@
         <v>3.0612666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>150</v>
       </c>
@@ -2486,12 +4010,12 @@
         <v>3.3871333333333333</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>200</v>
       </c>
@@ -2509,12 +4033,12 @@
         <v>3.8383333333333334</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>250</v>
       </c>
@@ -2532,12 +4056,12 @@
         <v>4.3866666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>300</v>
       </c>
@@ -2555,12 +4079,12 @@
         <v>4.8911333333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>325</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>350</v>
       </c>
@@ -2578,12 +4102,12 @@
         <v>5.6494</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>375</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>400</v>
       </c>
@@ -2601,12 +4125,12 @@
         <v>6.3293333333333335</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>425</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>450</v>
       </c>
@@ -2624,12 +4148,18 @@
         <v>6.9998666666666667</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>475</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="W32">
+        <v>60</v>
+      </c>
+      <c r="X32">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>500</v>
       </c>
@@ -2646,13 +4176,35 @@
         <f t="shared" si="0"/>
         <v>7.6328000000000005</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <v>120</v>
+      </c>
+      <c r="X33">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <v>240</v>
+      </c>
+      <c r="X34">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <v>450</v>
+      </c>
+      <c r="X35">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -2669,7 +4221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2687,7 +4239,7 @@
         <v>2.6225999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2705,7 +4257,7 @@
         <v>2.6696000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -2723,7 +4275,7 @@
         <v>2.6476666666666668</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2741,7 +4293,7 @@
         <v>2.6320000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -2759,7 +4311,7 @@
         <v>2.6069333333333335</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2777,7 +4329,7 @@
         <v>2.5129333333333332</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
@@ -2795,7 +4347,7 @@
         <v>2.5881333333333334</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>20</v>
       </c>
@@ -2813,7 +4365,7 @@
         <v>2.4628000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>50</v>
       </c>
@@ -2831,7 +4383,7 @@
         <v>2.5881333333333334</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>75</v>
       </c>
@@ -2849,7 +4401,7 @@
         <v>2.6132</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>100</v>
       </c>
@@ -2867,7 +4419,7 @@
         <v>2.6852666666666667</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>150</v>
       </c>
@@ -2885,7 +4437,7 @@
         <v>3.1991333333333336</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>200</v>
       </c>
@@ -2903,7 +4455,7 @@
         <v>3.6409333333333334</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>250</v>
       </c>
@@ -2921,7 +4473,7 @@
         <v>4.1579333333333333</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>300</v>
       </c>
@@ -2939,7 +4491,7 @@
         <v>4.8503999999999996</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>350</v>
       </c>
@@ -2957,7 +4509,7 @@
         <v>5.3956000000000008</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>400</v>
       </c>
@@ -2975,7 +4527,7 @@
         <v>6.3387333333333338</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>450</v>
       </c>
@@ -2993,7 +4545,7 @@
         <v>6.9528666666666661</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>500</v>
       </c>
@@ -3009,6 +4561,741 @@
       <c r="F57">
         <f t="shared" si="1"/>
         <v>7.7800666666666665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F63">
+        <f>0.0094*(HEX2DEC(C63)+HEX2DEC(D63)+HEX2DEC(E63))/3</f>
+        <v>47.128466666666668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ref="F64:F71" si="2">0.0094*(HEX2DEC(C64)+HEX2DEC(D64)+HEX2DEC(E64))/3</f>
+        <v>45.73413333333334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>47.4512</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>10</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>46.608333333333341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>20</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>42.284333333333336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>50</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>11.853400000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f>(H82-0.1394)/0.0068</f>
+        <v>-20.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>143</v>
+      </c>
+      <c r="B79" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.03</v>
+      </c>
+      <c r="B80">
+        <f>(A80)/0.0072</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ref="F80:F86" si="3">0.0094*(HEX2DEC(C80)+HEX2DEC(D80)+HEX2DEC(E80))/3</f>
+        <v>0.69873333333333332</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.04</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ref="B81:B104" si="4">(A81)/0.0072</f>
+        <v>5.5555555555555562</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="3"/>
+        <v>0.72380000000000011</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.05</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="4"/>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="3"/>
+        <v>0.69873333333333332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="4"/>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="3"/>
+        <v>0.69873333333333332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.1</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="4"/>
+        <v>13.888888888888889</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="3"/>
+        <v>0.71440000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.15</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="4"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="3"/>
+        <v>0.77706666666666668</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.2</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="4"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="3"/>
+        <v>0.83346666666666669</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.25</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="4"/>
+        <v>34.722222222222221</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F87">
+        <f>0.0094*(HEX2DEC(C87)+HEX2DEC(D87)+HEX2DEC(E87))/3</f>
+        <v>0.90866666666666662</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.3</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="4"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F88">
+        <f t="shared" ref="F88:F104" si="5">0.0094*(HEX2DEC(C88)+HEX2DEC(D88)+HEX2DEC(E88))/3</f>
+        <v>1.0089333333333335</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.35</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="4"/>
+        <v>48.611111111111107</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="5"/>
+        <v>1.1029333333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.4</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="4"/>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="5"/>
+        <v>1.1969333333333334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.45</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="4"/>
+        <v>62.5</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="5"/>
+        <v>1.3191333333333335</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.5</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="4"/>
+        <v>69.444444444444443</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="5"/>
+        <v>1.4100000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="4"/>
+        <v>76.3888888888889</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="5"/>
+        <v>1.5008666666666668</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>0.6</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="4"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="5"/>
+        <v>1.6168000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>0.65</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="4"/>
+        <v>90.277777777777786</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="5"/>
+        <v>1.7390000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>0.7</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="4"/>
+        <v>97.222222222222214</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="5"/>
+        <v>1.8862666666666668</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>0.8</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="4"/>
+        <v>111.11111111111111</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="5"/>
+        <v>2.0899333333333332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>0.9</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="5"/>
+        <v>2.3374666666666668</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="4"/>
+        <v>138.88888888888889</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="5"/>
+        <v>2.6163333333333334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1.5</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="4"/>
+        <v>208.33333333333334</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="5"/>
+        <v>3.7788000000000004</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="4"/>
+        <v>277.77777777777777</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="5"/>
+        <v>5.3517333333333328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2.5</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="4"/>
+        <v>347.22222222222223</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="5"/>
+        <v>6.1820666666666675</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="4"/>
+        <v>416.66666666666669</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="5"/>
+        <v>7.432266666666667</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>3.3</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="4"/>
+        <v>458.33333333333331</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="5"/>
+        <v>8.4349333333333334</v>
       </c>
     </row>
   </sheetData>
